--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2067141.463148432</v>
+        <v>2040798.160273891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>18.31780124109495</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,73 +738,73 @@
         <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>46.38724422570588</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="E3" t="n">
-        <v>47.13383555196375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>185.0333587736945</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.67491542251844</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>36.38799832154189</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1148,13 +1148,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>45.39790834100709</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>86.12049602088146</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,55 +1376,55 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>114.5694281034487</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>66.65516930006972</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1628,7 +1628,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D15" t="n">
-        <v>51.87748497259537</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S17" t="n">
-        <v>80.33470701582003</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>104.7383832473596</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,70 +1999,70 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S20" t="n">
-        <v>82.96396779500064</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>140.3787069980184</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>123.3342443606757</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.33905572536996</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>131.1096832932227</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.42067328920988</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>64.49310475936073</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>151.9678138963363</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>59.15846275699339</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.41637060129781</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3165,7 +3165,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,64 +3275,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3342,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3439,43 +3439,43 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>84.41978777916125</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3579,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.54573294646922</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>28.41964442677787</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,49 +3673,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3746,22 +3746,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -3791,7 +3791,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>91.51695123093688</v>
       </c>
       <c r="D45" t="n">
-        <v>98.10479885422595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>124.457110779899</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>124.457110779899</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>124.457110779899</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>88.90688071034873</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
         <v>16.35099156787933</v>
@@ -4331,19 +4331,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4352,28 +4352,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>124.457110779899</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>124.457110779899</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>124.457110779899</v>
       </c>
       <c r="V2" t="n">
-        <v>203.9585006715719</v>
+        <v>124.457110779899</v>
       </c>
       <c r="W2" t="n">
-        <v>203.9585006715719</v>
+        <v>124.457110779899</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>124.457110779899</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>124.457110779899</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4434,25 +4434,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>27.95824356358591</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>134.8815577205762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670.606730582354</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C6" t="n">
-        <v>670.606730582354</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="D6" t="n">
-        <v>521.6723209211027</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197.3253049269343</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C9" t="n">
-        <v>197.3253049269343</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="D9" t="n">
-        <v>197.3253049269343</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="E9" t="n">
-        <v>197.3253049269343</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>197.3253049269343</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,43 +4890,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>432.4774131586771</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>197.3253049269343</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>197.3253049269343</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X9" t="n">
-        <v>197.3253049269343</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y9" t="n">
-        <v>197.3253049269343</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.7661011803829</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="C12" t="n">
-        <v>158.7661011803829</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="D12" t="n">
-        <v>158.7661011803829</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="E12" t="n">
-        <v>158.7661011803829</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="F12" t="n">
-        <v>158.7661011803829</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5127,13 +5127,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>622.1418276757365</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>393.9182094121256</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>158.7661011803829</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>158.7661011803829</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X12" t="n">
-        <v>158.7661011803829</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.7661011803829</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="13">
@@ -5261,19 +5261,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
-        <v>720.6083788665362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
         <v>668.2068788942177</v>
@@ -5358,49 +5358,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5431,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5537,7 +5537,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
         <v>731.528039392485</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>125.0774898247174</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>125.0774898247174</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5710,13 +5710,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>718.7806050553886</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>345.4870131375847</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.4530077769195</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>144.6153205717618</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>876.8459881112726</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>703.4286435619415</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>703.4286435619415</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>703.4286435619415</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>703.4286435619415</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>703.4286435619415</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>703.4286435619415</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y24" t="n">
-        <v>495.6683447969875</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="25">
@@ -6163,19 +6163,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>152.4692992915062</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C27" t="n">
-        <v>152.4692992915062</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="D27" t="n">
-        <v>152.4692992915062</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="E27" t="n">
-        <v>152.4692992915062</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="F27" t="n">
-        <v>152.4692992915062</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,10 +6306,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
         <v>304.2053859195205</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2295980564601</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y27" t="n">
-        <v>152.4692992915062</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6403,31 +6403,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.17982602497898</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C30" t="n">
-        <v>85.17982602497898</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D30" t="n">
-        <v>85.17982602497898</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
-        <v>85.17982602497898</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>85.17982602497898</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
         <v>20.03527576299844</v>
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6573,19 +6573,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>461.2466632505798</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>461.2466632505798</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="W30" t="n">
-        <v>461.2466632505798</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="X30" t="n">
-        <v>253.395163045047</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="Y30" t="n">
-        <v>253.395163045047</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="31">
@@ -6646,13 +6646,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6740,10 +6740,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>562.4161926976942</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C33" t="n">
-        <v>387.9631634165672</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D33" t="n">
-        <v>239.028753755316</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E33" t="n">
-        <v>79.79129874986046</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>885.8588013679112</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>712.44145681858</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>712.44145681858</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>484.2178385549691</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="W33" t="n">
-        <v>562.4161926976942</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="X33" t="n">
-        <v>562.4161926976942</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y33" t="n">
-        <v>562.4161926976942</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>955.386757468614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7123,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7205,7 +7205,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
         <v>262.7299197543128</v>
@@ -7214,7 +7214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>182.1001465464452</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C39" t="n">
-        <v>182.1001465464452</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D39" t="n">
-        <v>182.1001465464452</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="E39" t="n">
-        <v>22.86269154098972</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,10 +7257,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>425.5489231905453</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>182.1001465464452</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>182.1001465464452</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.1001465464452</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>591.4512093066566</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>591.4512093066566</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V41" t="n">
-        <v>591.4512093066566</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W41" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7497,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7530,10 +7530,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
         <v>829.5248650203655</v>
@@ -7609,10 +7609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>292.8299288097498</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C45" t="n">
-        <v>118.3768995286228</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,22 +7728,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>500.6814290152826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>292.8299288097498</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y45" t="n">
-        <v>292.8299288097498</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10443,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10905,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>22.77408905976198</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>133.5095593947519</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D15" t="n">
-        <v>95.56758059204338</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23634,7 +23634,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S17" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>52.90669720804131</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23859,16 +23859,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,13 +23972,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S20" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,10 +24066,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>228.601695792694</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,13 +24251,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24285,13 +24285,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>24.11082120396306</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.81877842727317</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,10 +24458,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>287.7526474377897</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>6.233833869987933</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>73.97595956220519</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,10 +24737,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>72.8504124038499</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>80.83277325308896</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>85.91074963639048</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>22.74146355134532</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,19 +25163,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.0990017157023</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25327,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25445,19 +25445,19 @@
         <v>138.6760617849701</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,31 +25467,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>141.5234794469146</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>108.9238727364328</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25634,22 +25634,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>246.2320709856112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>95.56758059204344</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,10 +25944,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>81.19154775737886</v>
       </c>
       <c r="D45" t="n">
-        <v>49.34026671041281</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>332440.4349528088</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332440.4349528085</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
@@ -26341,13 +26341,13 @@
         <v>265857.0760501318</v>
       </c>
       <c r="L2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="M2" t="n">
         <v>265857.0760501319</v>
       </c>
       <c r="N2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="O2" t="n">
         <v>265857.0760501319</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339491.5823438202</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262527.3925244001</v>
+        <v>260154.1004845246</v>
       </c>
       <c r="C6" t="n">
-        <v>255369.4461071601</v>
+        <v>252115.6076655568</v>
       </c>
       <c r="D6" t="n">
-        <v>315945.7682938283</v>
+        <v>312691.9298522249</v>
       </c>
       <c r="E6" t="n">
-        <v>237542.5560869927</v>
+        <v>234288.7176453893</v>
       </c>
       <c r="F6" t="n">
-        <v>237542.5560869928</v>
+        <v>234288.7176453894</v>
       </c>
       <c r="G6" t="n">
-        <v>237542.5560869928</v>
+        <v>234288.7176453894</v>
       </c>
       <c r="H6" t="n">
-        <v>237542.5560869926</v>
+        <v>234288.7176453893</v>
       </c>
       <c r="I6" t="n">
-        <v>237542.5560869927</v>
+        <v>234288.7176453893</v>
       </c>
       <c r="J6" t="n">
-        <v>223541.3239467134</v>
+        <v>220287.48550511</v>
       </c>
       <c r="K6" t="n">
-        <v>189285.6031533601</v>
+        <v>186031.7647117567</v>
       </c>
       <c r="L6" t="n">
-        <v>237542.5560869927</v>
+        <v>234288.7176453894</v>
       </c>
       <c r="M6" t="n">
-        <v>237542.5560869928</v>
+        <v>234288.7176453894</v>
       </c>
       <c r="N6" t="n">
-        <v>237542.5560869928</v>
+        <v>234288.7176453893</v>
       </c>
       <c r="O6" t="n">
-        <v>237542.5560869928</v>
+        <v>234288.7176453894</v>
       </c>
       <c r="P6" t="n">
-        <v>237542.5560869927</v>
+        <v>234288.7176453893</v>
       </c>
     </row>
   </sheetData>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>396.9849362740401</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>183.826222603439</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5112449034372</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>125.295926878132</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>204.5051205979195</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27616,28 +27616,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>221.8426869680169</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.8582682273489</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>108.681214071842</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>114.792179629552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -27868,13 +27868,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,19 +27938,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>112.2471721143939</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>51.22302114232917</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27989,13 +27989,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35258,10 +35258,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37163,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2040798.160273891</v>
+        <v>2043121.832087758</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5179489.53029341</v>
+        <v>5179489.530293411</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,58 +670,58 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24.95505229511724</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="S2" t="n">
-        <v>25.19384698280639</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>47.13383555196372</v>
+      </c>
+      <c r="C3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,55 +822,55 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.89241773958567</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,61 +901,61 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.62493210760333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>36.38799832154189</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>190.3580865263562</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,55 +1144,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>196.9826481283071</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>45.39790834100709</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,13 +1271,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>96.43005249508282</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>114.5694281034487</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,10 +1627,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.526135781725</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>218.2545356023573</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,19 +1934,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>62.88143347497287</v>
+        <v>78.88188178727695</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.19305615617957</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>140.3787069980184</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,55 +2238,55 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>110.8731063230731</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>123.3342443606757</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>168.0500184703206</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>232.8330857361503</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.42067328920988</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,10 +2684,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>21.02892979786577</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>156.7701852745343</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>151.9678138963363</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>232.3303155802433</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>95.15725758733777</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.41637060129781</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>61.60271076108484</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>104.7383832473596</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>28.41964442677787</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>59.67606539615428</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3746,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>154.3436670675912</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>62.07749986335751</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,67 +3906,67 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>200.3360962888297</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>91.51695123093688</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4074,10 +4076,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.82248702120288</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.457110779899</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="C2" t="n">
-        <v>124.457110779899</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="D2" t="n">
-        <v>124.457110779899</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="E2" t="n">
-        <v>124.457110779899</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,10 +4336,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
         <v>161.0727123199487</v>
@@ -4349,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>124.457110779899</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="T2" t="n">
-        <v>124.457110779899</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="U2" t="n">
-        <v>124.457110779899</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="V2" t="n">
-        <v>124.457110779899</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="W2" t="n">
-        <v>124.457110779899</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="X2" t="n">
-        <v>124.457110779899</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="Y2" t="n">
-        <v>124.457110779899</v>
+        <v>134.7899329033677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08819457959154</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
         <v>57.25840604064623</v>
@@ -4419,13 +4421,13 @@
         <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4434,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4510,28 +4512,28 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>259.0827180527828</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.6254074314342</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.5201808117111</v>
+        <v>670.606730582354</v>
       </c>
       <c r="C6" t="n">
-        <v>285.0671515305841</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D6" t="n">
-        <v>285.0671515305841</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E6" t="n">
-        <v>285.0671515305841</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>248.3115976704407</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>627.7355178317791</v>
+        <v>670.606730582354</v>
       </c>
       <c r="Y6" t="n">
-        <v>627.7355178317791</v>
+        <v>670.606730582354</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>761.6974622895962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V8" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W8" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X8" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.7954424002585</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>325.7954424002585</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.7954424002585</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4917,16 +4919,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>533.6469426057913</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X9" t="n">
-        <v>325.7954424002585</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.7954424002585</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339.4307355522512</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C12" t="n">
-        <v>339.4307355522512</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D12" t="n">
-        <v>339.4307355522512</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="E12" t="n">
-        <v>339.4307355522512</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F12" t="n">
-        <v>339.4307355522512</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>547.1910343172051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>547.1910343172051</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y12" t="n">
-        <v>339.4307355522512</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>735.2428769432372</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5464,22 +5466,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>213.083079827416</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>213.083079827416</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>213.083079827416</v>
       </c>
       <c r="H18" t="n">
-        <v>82.7977425798823</v>
+        <v>99.71394423499537</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,13 +5773,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
         <v>506.1786963984129</v>
@@ -5792,10 +5794,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>345.4870131375847</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>110.334904905842</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X21" t="n">
-        <v>110.334904905842</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y21" t="n">
-        <v>110.334904905842</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>587.3248651012614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>144.6153205717618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y24" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6163,19 +6165,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>841.6462828333545</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X27" t="n">
-        <v>411.587349213889</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.827050448935</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>328.2071404297052</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>328.2071404297052</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>805.7034330111067</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>577.4798147474958</v>
       </c>
       <c r="V30" t="n">
-        <v>535.9674391946592</v>
+        <v>577.4798147474958</v>
       </c>
       <c r="W30" t="n">
-        <v>535.9674391946592</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="X30" t="n">
-        <v>535.9674391946592</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="Y30" t="n">
-        <v>328.2071404297052</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>249.0657303232264</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C33" t="n">
-        <v>249.0657303232264</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D33" t="n">
-        <v>249.0657303232264</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E33" t="n">
-        <v>249.0657303232264</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F33" t="n">
-        <v>249.0657303232264</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>885.8588013679112</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>712.44145681858</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>712.44145681858</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>484.2178385549691</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>249.0657303232264</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>249.0657303232264</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>249.0657303232264</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>249.0657303232264</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>901.8321951459041</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>901.8321951459041</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>699.64560050467</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>699.64560050467</v>
       </c>
       <c r="V36" t="n">
-        <v>125.0774898247174</v>
+        <v>699.64560050467</v>
       </c>
       <c r="W36" t="n">
-        <v>125.0774898247174</v>
+        <v>699.64560050467</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7122,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="W38" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="X38" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="Y38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>313.4946457291688</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C39" t="n">
-        <v>139.0416164480418</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D39" t="n">
-        <v>139.0416164480418</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>139.0416164480418</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>132.7447050367114</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.6083788665362</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C42" t="n">
-        <v>720.6083788665362</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D42" t="n">
-        <v>571.6739692052849</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E42" t="n">
-        <v>508.9694238887622</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7497,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.6083788665362</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>512.7568786610034</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C45" t="n">
-        <v>420.3155137812691</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D45" t="n">
-        <v>271.3811041200179</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E45" t="n">
-        <v>271.3811041200179</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>945.044542357906</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>945.044542357906</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>945.044542357906</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>716.820924094295</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>716.820924094295</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>716.820924094295</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.7568786610034</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8772,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9026,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>304.5378186490225</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>51.01501306955593</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>22.77408905976198</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23400,10 +23402,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,10 +23515,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>6.274451367700266</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23735,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>151.4765650761118</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,19 +23822,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.5151993764422</v>
+        <v>10.51475106413812</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>85.56267508295639</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>228.601695792694</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24257,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>24.11082120396306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>37.63267730698374</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24412,13 +24414,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>116.4078829812627</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>73.97595956220519</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>150.6542413059721</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>43.39454342028733</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>80.83277325308896</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>19.01533732759322</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>77.55124140097797</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.74146355134532</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>38.55512339155829</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>101.0346019561178</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>108.9238727364328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>146.0969198073232</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25634,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>294.5471194344777</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,19 +25675,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25707,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>18.36483192072453</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>95.56758059204344</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.3977453746509</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,16 +25946,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>81.19154775737886</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25962,10 +25964,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>81.33534713144026</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299914</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>332440.4349528085</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="E2" t="n">
+        <v>265857.0760501319</v>
+      </c>
+      <c r="F2" t="n">
         <v>265857.0760501318</v>
-      </c>
-      <c r="F2" t="n">
-        <v>265857.0760501319</v>
       </c>
       <c r="G2" t="n">
         <v>265857.0760501319</v>
@@ -26338,19 +26340,19 @@
         <v>265857.0760501318</v>
       </c>
       <c r="K2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="L2" t="n">
         <v>265857.0760501319</v>
       </c>
       <c r="M2" t="n">
+        <v>265857.0760501318</v>
+      </c>
+      <c r="N2" t="n">
         <v>265857.0760501319</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>265857.0760501318</v>
-      </c>
-      <c r="O2" t="n">
-        <v>265857.0760501319</v>
       </c>
       <c r="P2" t="n">
         <v>265857.0760501318</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260154.1004845246</v>
+        <v>260154.1004845247</v>
       </c>
       <c r="C6" t="n">
-        <v>252115.6076655568</v>
+        <v>252115.6076655563</v>
       </c>
       <c r="D6" t="n">
-        <v>312691.9298522249</v>
+        <v>312691.9298522248</v>
       </c>
       <c r="E6" t="n">
         <v>234288.7176453893</v>
       </c>
       <c r="F6" t="n">
-        <v>234288.7176453894</v>
+        <v>234288.7176453893</v>
       </c>
       <c r="G6" t="n">
-        <v>234288.7176453894</v>
+        <v>234288.7176453893</v>
       </c>
       <c r="H6" t="n">
         <v>234288.7176453893</v>
@@ -26546,19 +26548,19 @@
         <v>220287.48550511</v>
       </c>
       <c r="K6" t="n">
-        <v>186031.7647117567</v>
+        <v>186031.7647117568</v>
       </c>
       <c r="L6" t="n">
+        <v>234288.7176453893</v>
+      </c>
+      <c r="M6" t="n">
+        <v>234288.7176453893</v>
+      </c>
+      <c r="N6" t="n">
         <v>234288.7176453894</v>
       </c>
-      <c r="M6" t="n">
-        <v>234288.7176453894</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>234288.7176453893</v>
-      </c>
-      <c r="O6" t="n">
-        <v>234288.7176453894</v>
       </c>
       <c r="P6" t="n">
         <v>234288.7176453893</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>183.826222603439</v>
+        <v>184.0650172911281</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>119.3993480979036</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>35.88410384146533</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>125.295926878132</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>95.1029440082626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>173.4009736375838</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>201.783679862813</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8771690273874</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>327.8498700081638</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>108.681214071842</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27752,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>15.41489867712124</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>182.6195704309962</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>112.2471721143939</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27989,13 +27991,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>147.9819277980378</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -34702,13 +34704,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2043121.832087758</v>
+        <v>1974270.535646321</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5179489.530293411</v>
+        <v>5179489.53029341</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,11 +676,11 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.95505229511724</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>14.96435308057243</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,70 +737,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>47.13383555196375</v>
+      </c>
+      <c r="V3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="W3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.16190956546851</v>
       </c>
     </row>
     <row r="5">
@@ -913,13 +913,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>11.62493210760333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>190.3580865263562</v>
+        <v>137.6384233961734</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>24.75543250779076</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>196.9826481283071</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>24.88156537268685</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>96.43005249508282</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>130.7406573088296</v>
       </c>
     </row>
     <row r="13">
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.265316057196634</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.526135781725</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>79.84446227365159</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>218.2545356023573</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88188178727695</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1973,22 +1973,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>12.26379190823967</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2086,25 +2086,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2386,7 +2386,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>238.9979933037075</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.0500184703206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>232.8330857361503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.02892979786577</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="T30" t="n">
-        <v>156.7701852745343</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>232.3303155802433</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>95.15725758733777</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>18.40882703545761</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,28 +3268,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>61.60271076108484</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>97.53545453959389</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -3559,7 +3559,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>59.67606539615428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>154.3436670675912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -3875,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>21.96898716277587</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>98.92381696846063</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>18.82248702120288</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>95.77809019286801</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.73687329735785</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="C2" t="n">
-        <v>80.73687329735785</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="D2" t="n">
-        <v>80.73687329735785</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="E2" t="n">
         <v>80.73687329735785</v>
@@ -4324,7 +4324,7 @@
         <v>58.33406192680583</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I2" t="n">
         <v>4.28100232079598</v>
@@ -4339,34 +4339,34 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>188.8429925093776</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
         <v>188.8429925093776</v>
       </c>
       <c r="U2" t="n">
-        <v>188.8429925093776</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="V2" t="n">
-        <v>188.8429925093776</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="W2" t="n">
         <v>134.7899329033677</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.4401811388256</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
         <v>4.28100232079598</v>
@@ -4412,49 +4412,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>163.2132134803467</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>163.2132134803467</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T4" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U4" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>259.0827180527828</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>243.6254074314342</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>753.253405673024</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460863</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="V5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670.606730582354</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="C6" t="n">
-        <v>670.606730582354</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D6" t="n">
         <v>521.6723209211027</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>670.606730582354</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.606730582354</v>
+        <v>521.6723209211027</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>193.7341723913397</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>703.7721529630483</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y11" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>415.3527852316268</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,10 +5123,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
         <v>304.2053859195205</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X12" t="n">
-        <v>512.7568786610034</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y12" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5223,10 +5223,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>284.0338015341832</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C15" t="n">
-        <v>109.5807722530562</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D15" t="n">
-        <v>109.5807722530562</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E15" t="n">
-        <v>109.5807722530562</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5360,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>735.2428769432372</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W15" t="n">
-        <v>491.7941002991371</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X15" t="n">
-        <v>491.7941002991371</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y15" t="n">
-        <v>284.0338015341832</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="16">
@@ -5466,7 +5466,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.7999090013961</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C17" t="n">
-        <v>274.7999090013961</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>521.2549444941228</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C18" t="n">
-        <v>521.2549444941228</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D18" t="n">
-        <v>372.3205348328715</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>213.083079827416</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>213.083079827416</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>213.083079827416</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>99.71394423499537</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>850.4999574693404</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>622.2763392057295</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>777.5613083818946</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>189.028636514577</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="X24" t="n">
-        <v>189.028636514577</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>259.2693145670932</v>
       </c>
     </row>
     <row r="25">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X26" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>841.6462828333545</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>639.4596881921204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>639.4596881921204</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>639.4596881921204</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>396.0109115480204</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>396.0109115480204</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6402,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C29" t="n">
-        <v>315.6850394389064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D29" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T30" t="n">
-        <v>805.7034330111067</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U30" t="n">
-        <v>577.4798147474958</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V30" t="n">
-        <v>577.4798147474958</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W30" t="n">
-        <v>334.0310381033958</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>334.0310381033958</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>334.0310381033958</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6645,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>319.0683498528888</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C33" t="n">
-        <v>222.9499078454769</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D33" t="n">
-        <v>222.9499078454769</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6809,22 +6809,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="34">
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>520.918188268317</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
         <v>109.5807722530562</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>901.8321951459041</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>901.8321951459041</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>699.64560050467</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>699.64560050467</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>699.64560050467</v>
+        <v>764.366964912417</v>
       </c>
       <c r="W36" t="n">
-        <v>699.64560050467</v>
+        <v>520.918188268317</v>
       </c>
       <c r="X36" t="n">
-        <v>491.7941002991371</v>
+        <v>520.918188268317</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.0338015341832</v>
+        <v>520.918188268317</v>
       </c>
     </row>
     <row r="37">
@@ -7122,10 +7122,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>333.7844730889342</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V38" t="n">
-        <v>333.7844730889342</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W38" t="n">
-        <v>333.7844730889342</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X38" t="n">
-        <v>333.7844730889342</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7259,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>226.0945550188371</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>226.0945550188371</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>165.8157010833278</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y39" t="n">
-        <v>165.8157010833278</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="40">
@@ -7356,13 +7356,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7441,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>481.7099827492369</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C42" t="n">
-        <v>325.807288741569</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D42" t="n">
-        <v>325.807288741569</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>540.2252965736782</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>540.2252965736782</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>540.2252965736782</v>
       </c>
       <c r="Y42" t="n">
-        <v>481.7099827492369</v>
+        <v>332.4649978087242</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K43" t="n">
         <v>19.28114311021272</v>
@@ -7587,34 +7587,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W44" t="n">
-        <v>495.259035872464</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X44" t="n">
-        <v>495.259035872464</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y44" t="n">
-        <v>251.810259228364</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>945.044542357906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>945.044542357906</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>945.044542357906</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>716.820924094295</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V45" t="n">
-        <v>716.820924094295</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W45" t="n">
-        <v>716.820924094295</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8078,7 +8078,7 @@
         <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9023,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>185.4193833999402</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10907,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>105.4126421044364</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>51.01501306955593</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>74.94203846847481</v>
       </c>
     </row>
     <row r="13">
@@ -23463,13 +23463,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0803368506399</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>6.274451367700266</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>171.850520887268</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23706,10 +23706,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>242.3541153134493</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>151.4765650761118</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>10.51475106413812</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>187.9009367865819</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23974,25 +23974,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24274,7 +24274,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24290,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>12.69698985721209</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.63267730698374</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>116.4078829812627</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>285.3113128993078</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>150.6542413059721</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2811697535276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>272.2218439815895</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>287.0492336280195</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="T30" t="n">
-        <v>43.39454342028733</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>19.01533732759322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>77.55124140097797</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>181.755901659364</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,28 +25156,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>128.0146919313124</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.55512339155829</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>135.2651326098314</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,13 +25362,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>304.4296311920619</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.8939308547783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>68.76672313002642</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>146.0969198073232</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,25 +25633,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25709,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>18.36483192072453</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>210.8315999866494</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>240.5509851473065</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>81.33534713144026</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>109.9948950106095</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26043,10 +26043,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.33425578299914</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528085</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528085</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332440.4349528087</v>
+        <v>332440.4349528086</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332440.4349528086</v>
+        <v>332440.4349528087</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914264</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
+        <v>265857.0760501318</v>
+      </c>
+      <c r="F2" t="n">
         <v>265857.0760501319</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>265857.0760501318</v>
-      </c>
-      <c r="G2" t="n">
-        <v>265857.0760501319</v>
       </c>
       <c r="H2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="I2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="J2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="K2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="L2" t="n">
         <v>265857.0760501319</v>
       </c>
       <c r="M2" t="n">
+        <v>265857.0760501319</v>
+      </c>
+      <c r="N2" t="n">
         <v>265857.0760501318</v>
-      </c>
-      <c r="N2" t="n">
-        <v>265857.0760501319</v>
       </c>
       <c r="O2" t="n">
         <v>265857.0760501318</v>
@@ -26420,7 +26420,7 @@
         <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
         <v>295860.2172754402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260154.1004845247</v>
+        <v>260154.1004845248</v>
       </c>
       <c r="C6" t="n">
-        <v>252115.6076655563</v>
+        <v>252115.6076655565</v>
       </c>
       <c r="D6" t="n">
-        <v>312691.9298522248</v>
+        <v>312691.9298522245</v>
       </c>
       <c r="E6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253488</v>
       </c>
       <c r="F6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253489</v>
       </c>
       <c r="G6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253488</v>
       </c>
       <c r="H6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253488</v>
       </c>
       <c r="I6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253489</v>
       </c>
       <c r="J6" t="n">
-        <v>220287.48550511</v>
+        <v>208069.4748850696</v>
       </c>
       <c r="K6" t="n">
-        <v>186031.7647117568</v>
+        <v>173813.7540917162</v>
       </c>
       <c r="L6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253489</v>
       </c>
       <c r="M6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253489</v>
       </c>
       <c r="N6" t="n">
-        <v>234288.7176453894</v>
+        <v>222070.7070253488</v>
       </c>
       <c r="O6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253488</v>
       </c>
       <c r="P6" t="n">
-        <v>234288.7176453893</v>
+        <v>222070.7070253488</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27423,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>184.0650172911281</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>208.1314964835589</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3993480979036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,13 +27514,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>178.8075465290111</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27557,7 +27557,7 @@
         <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27587,10 +27587,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>201.783679862813</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.4227437866263</v>
       </c>
     </row>
     <row r="5">
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>327.8498700081638</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>24.39083643944002</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>15.41489867712124</v>
+        <v>68.13456180730404</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.829220844304</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>199.8391668911481</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,7 +27912,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27934,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>147.9819277980378</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>180.8011304046175</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>131.0571773754</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35743,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>43.28534947792188</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37627,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
